--- a/20001.xlsx
+++ b/20001.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbarry/work/JAM/workspace/EIC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbarry/work/JAM/fitpack/database/ln/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727134ED-0257-4945-8C62-AD9BC6B78119}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20F2E56-CF0C-9D4E-A752-CB5FEE7AC591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="W95" sqref="W95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P107" sqref="P107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -615,8 +615,8 @@
         <v>481421.27451947401</v>
       </c>
       <c r="P2">
-        <f>0.12*N2</f>
-        <v>76093558.749604344</v>
+        <f>0.012*N2</f>
+        <v>7609355.8749604356</v>
       </c>
       <c r="Q2">
         <f>0.025*N2</f>
@@ -687,8 +687,8 @@
         <v>1023907.337138511</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="1">0.12*N3</f>
-        <v>344206168.69032776</v>
+        <f t="shared" ref="P3:P66" si="1">0.012*N3</f>
+        <v>34420616.869032778</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q66" si="2">0.025*N3</f>
@@ -760,7 +760,7 @@
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
-        <v>61505602.159418009</v>
+        <v>6150560.2159418017</v>
       </c>
       <c r="Q4">
         <f t="shared" si="2"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
-        <v>279275509.6204105</v>
+        <v>27927550.96204105</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
@@ -904,7 +904,7 @@
       </c>
       <c r="P6">
         <f t="shared" si="1"/>
-        <v>27562132.175930984</v>
+        <v>2756213.2175930985</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
@@ -976,7 +976,7 @@
       </c>
       <c r="P7">
         <f t="shared" si="1"/>
-        <v>158849677.77142164</v>
+        <v>15884967.777142165</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
-        <v>48098267.848713838</v>
+        <v>4809826.7848713845</v>
       </c>
       <c r="Q8">
         <f t="shared" si="2"/>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="P9">
         <f t="shared" si="1"/>
-        <v>215277317.41520399</v>
+        <v>21527731.741520401</v>
       </c>
       <c r="Q9">
         <f t="shared" si="2"/>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="P10">
         <f t="shared" si="1"/>
-        <v>20518430.916566279</v>
+        <v>2051843.0916566281</v>
       </c>
       <c r="Q10">
         <f t="shared" si="2"/>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
-        <v>115804009.1292146</v>
+        <v>11580400.91292146</v>
       </c>
       <c r="Q11">
         <f t="shared" si="2"/>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="P12">
         <f t="shared" si="1"/>
-        <v>8191983.6575342361</v>
+        <v>819198.36575342366</v>
       </c>
       <c r="Q12">
         <f t="shared" si="2"/>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="P13">
         <f t="shared" si="1"/>
-        <v>49846321.791826583</v>
+        <v>4984632.1791826589</v>
       </c>
       <c r="Q13">
         <f t="shared" si="2"/>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="1"/>
-        <v>36834154.904180206</v>
+        <v>3683415.4904180211</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
-        <v>158319533.05575046</v>
+        <v>15831953.305575049</v>
       </c>
       <c r="Q15">
         <f t="shared" si="2"/>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="1"/>
-        <v>15135648.050227704</v>
+        <v>1513564.8050227705</v>
       </c>
       <c r="Q16">
         <f t="shared" si="2"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="P17">
         <f t="shared" si="1"/>
-        <v>80625958.343489617</v>
+        <v>8062595.8343489617</v>
       </c>
       <c r="Q17">
         <f t="shared" si="2"/>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="P18">
         <f t="shared" si="1"/>
-        <v>6075012.5074751144</v>
+        <v>607501.25074751151</v>
       </c>
       <c r="Q18">
         <f t="shared" si="2"/>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="P19">
         <f t="shared" si="1"/>
-        <v>35232065.501256093</v>
+        <v>3523206.5501256096</v>
       </c>
       <c r="Q19">
         <f t="shared" si="2"/>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
-        <v>2252545.9622640456</v>
+        <v>225254.5962264046</v>
       </c>
       <c r="Q20">
         <f t="shared" si="2"/>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="P21">
         <f t="shared" si="1"/>
-        <v>13953362.085728567</v>
+        <v>1395336.2085728568</v>
       </c>
       <c r="Q21">
         <f t="shared" si="2"/>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
-        <v>27907824.669973031</v>
+        <v>2790782.4669973035</v>
       </c>
       <c r="Q22">
         <f t="shared" si="2"/>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>113851948.16226552</v>
+        <v>11385194.816226553</v>
       </c>
       <c r="Q23">
         <f t="shared" si="2"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="P24">
         <f t="shared" si="1"/>
-        <v>11123312.342211151</v>
+        <v>1112331.2342211152</v>
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="P25">
         <f t="shared" si="1"/>
-        <v>54318365.333317026</v>
+        <v>5431836.5333317034</v>
       </c>
       <c r="Q25">
         <f t="shared" si="2"/>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="P26">
         <f t="shared" si="1"/>
-        <v>4454902.9730509501</v>
+        <v>445490.29730509501</v>
       </c>
       <c r="Q26">
         <f t="shared" si="2"/>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="P27">
         <f t="shared" si="1"/>
-        <v>24073927.712863609</v>
+        <v>2407392.7712863609</v>
       </c>
       <c r="Q27">
         <f t="shared" si="2"/>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="P28">
         <f t="shared" si="1"/>
-        <v>1667491.0795879415</v>
+        <v>166749.10795879416</v>
       </c>
       <c r="Q28">
         <f t="shared" si="2"/>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="P29">
         <f t="shared" si="1"/>
-        <v>9739277.6896454692</v>
+        <v>973927.76896454697</v>
       </c>
       <c r="Q29">
         <f t="shared" si="2"/>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="P30">
         <f t="shared" si="1"/>
-        <v>587799.91051625647</v>
+        <v>58779.99105162565</v>
       </c>
       <c r="Q30">
         <f t="shared" si="2"/>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="P31">
         <f t="shared" si="1"/>
-        <v>3654215.4824640839</v>
+        <v>365421.54824640841</v>
       </c>
       <c r="Q31">
         <f t="shared" si="2"/>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="P32">
         <f t="shared" si="1"/>
-        <v>20469458.267705377</v>
+        <v>2046945.8267705378</v>
       </c>
       <c r="Q32">
         <f t="shared" si="2"/>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="P33">
         <f t="shared" si="1"/>
-        <v>81999712.244506836</v>
+        <v>8199971.2244506851</v>
       </c>
       <c r="Q33">
         <f t="shared" si="2"/>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="P34">
         <f t="shared" si="1"/>
-        <v>7996863.8186733061</v>
+        <v>799686.38186733064</v>
       </c>
       <c r="Q34">
         <f t="shared" si="2"/>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="P35">
         <f t="shared" si="1"/>
-        <v>36566501.601640053</v>
+        <v>3656650.1601640056</v>
       </c>
       <c r="Q35">
         <f t="shared" si="2"/>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="P36">
         <f t="shared" si="1"/>
-        <v>3156626.0761857335</v>
+        <v>315662.60761857335</v>
       </c>
       <c r="Q36">
         <f t="shared" si="2"/>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="P37">
         <f t="shared" si="1"/>
-        <v>16123107.637762798</v>
+        <v>1612310.76377628</v>
       </c>
       <c r="Q37">
         <f t="shared" si="2"/>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="P38">
         <f t="shared" si="1"/>
-        <v>1193484.5761812723</v>
+        <v>119348.45761812723</v>
       </c>
       <c r="Q38">
         <f t="shared" si="2"/>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="P39">
         <f t="shared" si="1"/>
-        <v>6630281.3427768545</v>
+        <v>663028.13427768555</v>
       </c>
       <c r="Q39">
         <f t="shared" si="2"/>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="P40">
         <f t="shared" si="1"/>
-        <v>428164.71953687543</v>
+        <v>42816.471953687549</v>
       </c>
       <c r="Q40">
         <f t="shared" si="2"/>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="P41">
         <f t="shared" si="1"/>
-        <v>2542806.1500825225</v>
+        <v>254280.61500825227</v>
       </c>
       <c r="Q41">
         <f t="shared" si="2"/>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="P42">
         <f t="shared" si="1"/>
-        <v>145204.29169978909</v>
+        <v>14520.429169978908</v>
       </c>
       <c r="Q42">
         <f t="shared" si="2"/>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="P43">
         <f t="shared" si="1"/>
-        <v>911124.57025000313</v>
+        <v>91112.457025000316</v>
       </c>
       <c r="Q43">
         <f t="shared" si="2"/>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="P44">
         <f t="shared" si="1"/>
-        <v>13967518.540114367</v>
+        <v>1396751.8540114369</v>
       </c>
       <c r="Q44">
         <f t="shared" si="2"/>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="P45">
         <f t="shared" si="1"/>
-        <v>59797802.228982925</v>
+        <v>5979780.2228982924</v>
       </c>
       <c r="Q45">
         <f t="shared" si="2"/>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="P46">
         <f t="shared" si="1"/>
-        <v>5394786.852087752</v>
+        <v>539478.68520877522</v>
       </c>
       <c r="Q46">
         <f t="shared" si="2"/>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="P47">
         <f t="shared" si="1"/>
-        <v>25179481.868701857</v>
+        <v>2517948.1868701861</v>
       </c>
       <c r="Q47">
         <f t="shared" si="2"/>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="P48">
         <f t="shared" si="1"/>
-        <v>2097867.6399597167</v>
+        <v>209786.76399597168</v>
       </c>
       <c r="Q48">
         <f t="shared" si="2"/>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="P49">
         <f t="shared" si="1"/>
-        <v>10831430.726909291</v>
+        <v>1083143.0726909291</v>
       </c>
       <c r="Q49">
         <f t="shared" si="2"/>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="P50">
         <f t="shared" si="1"/>
-        <v>796548.11049501679</v>
+        <v>79654.811049501688</v>
       </c>
       <c r="Q50">
         <f t="shared" si="2"/>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="P51">
         <f t="shared" si="1"/>
-        <v>4441805.1597586721</v>
+        <v>444180.51597586728</v>
       </c>
       <c r="Q51">
         <f t="shared" si="2"/>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="P52">
         <f t="shared" si="1"/>
-        <v>292383.74741954554</v>
+        <v>29238.374741954558</v>
       </c>
       <c r="Q52">
         <f t="shared" si="2"/>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="P53">
         <f t="shared" si="1"/>
-        <v>1733585.6609446248</v>
+        <v>173358.56609446247</v>
       </c>
       <c r="Q53">
         <f t="shared" si="2"/>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="P54">
         <f t="shared" si="1"/>
-        <v>101867.54165554105</v>
+        <v>10186.754165554106</v>
       </c>
       <c r="Q54">
         <f t="shared" si="2"/>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="P55">
         <f t="shared" si="1"/>
-        <v>635405.29013584333</v>
+        <v>63540.529013584339</v>
       </c>
       <c r="Q55">
         <f t="shared" si="2"/>
@@ -4504,7 +4504,7 @@
       </c>
       <c r="P56">
         <f t="shared" si="1"/>
-        <v>33721.736348781684</v>
+        <v>3372.1736348781687</v>
       </c>
       <c r="Q56">
         <f t="shared" si="2"/>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="P57">
         <f t="shared" si="1"/>
-        <v>219138.30823070038</v>
+        <v>21913.830823070042</v>
       </c>
       <c r="Q57">
         <f t="shared" si="2"/>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="P58">
         <f t="shared" si="1"/>
-        <v>8668785.4517894611</v>
+        <v>866878.54517894611</v>
       </c>
       <c r="Q58">
         <f t="shared" si="2"/>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="P59">
         <f t="shared" si="1"/>
-        <v>43307267.827134214</v>
+        <v>4330726.7827134216</v>
       </c>
       <c r="Q59">
         <f t="shared" si="2"/>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="P60">
         <f t="shared" si="1"/>
-        <v>3330935.2103199493</v>
+        <v>333093.52103199495</v>
       </c>
       <c r="Q60">
         <f t="shared" si="2"/>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="P61">
         <f t="shared" si="1"/>
-        <v>17517375.171676151</v>
+        <v>1751737.517167615</v>
       </c>
       <c r="Q61">
         <f t="shared" si="2"/>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="P62">
         <f t="shared" si="1"/>
-        <v>1283540.1689167991</v>
+        <v>128354.01689167992</v>
       </c>
       <c r="Q62">
         <f t="shared" si="2"/>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="P63">
         <f t="shared" si="1"/>
-        <v>7274759.3085530447</v>
+        <v>727475.93085530447</v>
       </c>
       <c r="Q63">
         <f t="shared" si="2"/>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="P64">
         <f t="shared" si="1"/>
-        <v>488573.53478474001</v>
+        <v>48857.353478474004</v>
       </c>
       <c r="Q64">
         <f t="shared" si="2"/>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="P65">
         <f t="shared" si="1"/>
-        <v>2936717.4607800012</v>
+        <v>293671.74607800011</v>
       </c>
       <c r="Q65">
         <f t="shared" si="2"/>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="P66">
         <f t="shared" si="1"/>
-        <v>182292.39585552036</v>
+        <v>18229.239585552037</v>
       </c>
       <c r="Q66">
         <f t="shared" si="2"/>
@@ -5295,8 +5295,8 @@
         <v>4702.7591030599706</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P111" si="5">0.12*N67</f>
-        <v>1149675.1903425965</v>
+        <f t="shared" ref="P67:P111" si="5">0.012*N67</f>
+        <v>114967.51903425966</v>
       </c>
       <c r="Q67">
         <f t="shared" ref="Q67:Q111" si="6">0.025*N67</f>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="P68">
         <f t="shared" si="5"/>
-        <v>65566.471259324273</v>
+        <v>6556.647125932428</v>
       </c>
       <c r="Q68">
         <f t="shared" si="6"/>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="P69">
         <f t="shared" si="5"/>
-        <v>430694.30625184439</v>
+        <v>43069.430625184439</v>
       </c>
       <c r="Q69">
         <f t="shared" si="6"/>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="P70">
         <f t="shared" si="5"/>
-        <v>22463.573497044672</v>
+        <v>2246.3573497044672</v>
       </c>
       <c r="Q70">
         <f t="shared" si="6"/>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="P71">
         <f t="shared" si="5"/>
-        <v>152485.54847082024</v>
+        <v>15248.554847082023</v>
       </c>
       <c r="Q71">
         <f t="shared" si="6"/>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="P72">
         <f t="shared" si="5"/>
-        <v>7389.7471921197548</v>
+        <v>738.97471921197553</v>
       </c>
       <c r="Q72">
         <f t="shared" si="6"/>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="P73">
         <f t="shared" si="5"/>
-        <v>51850.938050498298</v>
+        <v>5185.0938050498298</v>
       </c>
       <c r="Q73">
         <f t="shared" si="6"/>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="P74">
         <f t="shared" si="5"/>
-        <v>5125745.0072409995</v>
+        <v>512574.50072409993</v>
       </c>
       <c r="Q74">
         <f t="shared" si="6"/>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="P75">
         <f t="shared" si="5"/>
-        <v>29867612.590854324</v>
+        <v>2986761.2590854326</v>
       </c>
       <c r="Q75">
         <f t="shared" si="6"/>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="P76">
         <f t="shared" si="5"/>
-        <v>1950684.7664274094</v>
+        <v>195068.47664274095</v>
       </c>
       <c r="Q76">
         <f t="shared" si="6"/>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="P77">
         <f t="shared" si="5"/>
-        <v>11785359.47549198</v>
+        <v>1178535.9475491981</v>
       </c>
       <c r="Q77">
         <f t="shared" si="6"/>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="P78">
         <f t="shared" si="5"/>
-        <v>742632.12939338398</v>
+        <v>74263.212939338395</v>
       </c>
       <c r="Q78">
         <f t="shared" si="6"/>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="P79">
         <f t="shared" si="5"/>
-        <v>4738099.8432238037</v>
+        <v>473809.98432238039</v>
       </c>
       <c r="Q79">
         <f t="shared" si="6"/>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="P80">
         <f t="shared" si="5"/>
-        <v>281062.38168676477</v>
+        <v>28106.238168676475</v>
       </c>
       <c r="Q80">
         <f t="shared" si="6"/>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="P81">
         <f t="shared" si="5"/>
-        <v>1878753.9509990423</v>
+        <v>187875.39509990424</v>
       </c>
       <c r="Q81">
         <f t="shared" si="6"/>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="P82">
         <f t="shared" si="5"/>
-        <v>105194.22879951779</v>
+        <v>10519.422879951779</v>
       </c>
       <c r="Q82">
         <f t="shared" si="6"/>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="P83">
         <f t="shared" si="5"/>
-        <v>732556.76042465202</v>
+        <v>73255.676042465202</v>
       </c>
       <c r="Q83">
         <f t="shared" si="6"/>
@@ -6520,7 +6520,7 @@
       </c>
       <c r="P84">
         <f t="shared" si="5"/>
-        <v>38424.546107896771</v>
+        <v>3842.4546107896776</v>
       </c>
       <c r="Q84">
         <f t="shared" si="6"/>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="P85">
         <f t="shared" si="5"/>
-        <v>277631.21685012296</v>
+        <v>27763.121685012298</v>
       </c>
       <c r="Q85">
         <f t="shared" si="6"/>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="P86">
         <f t="shared" si="5"/>
-        <v>13576.624817892132</v>
+        <v>1357.6624817892132</v>
       </c>
       <c r="Q86">
         <f t="shared" si="6"/>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="P87">
         <f t="shared" si="5"/>
-        <v>101231.1196545931</v>
+        <v>10123.111965459311</v>
       </c>
       <c r="Q87">
         <f t="shared" si="6"/>
@@ -6808,7 +6808,7 @@
       </c>
       <c r="P88">
         <f t="shared" si="5"/>
-        <v>4605.6033567764998</v>
+        <v>460.56033567764996</v>
       </c>
       <c r="Q88">
         <f t="shared" si="6"/>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="P89">
         <f t="shared" si="5"/>
-        <v>35452.204715557513</v>
+        <v>3545.2204715557514</v>
       </c>
       <c r="Q89">
         <f t="shared" si="6"/>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="P90">
         <f t="shared" si="5"/>
-        <v>1497.3095319909924</v>
+        <v>149.73095319909925</v>
       </c>
       <c r="Q90">
         <f t="shared" si="6"/>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="P91">
         <f t="shared" si="5"/>
-        <v>11870.352543602736</v>
+        <v>1187.0352543602737</v>
       </c>
       <c r="Q91">
         <f t="shared" si="6"/>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="P92">
         <f t="shared" si="5"/>
-        <v>2911856.1214638576</v>
+        <v>291185.61214638577</v>
       </c>
       <c r="Q92">
         <f t="shared" si="6"/>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="P93">
         <f t="shared" si="5"/>
-        <v>18937482.61072734</v>
+        <v>1893748.2610727341</v>
       </c>
       <c r="Q93">
         <f t="shared" si="6"/>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="P94">
         <f t="shared" si="5"/>
-        <v>1041697.9186186532</v>
+        <v>104169.79186186532</v>
       </c>
       <c r="Q94">
         <f t="shared" si="6"/>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="P95">
         <f t="shared" si="5"/>
-        <v>7370065.0506364498</v>
+        <v>737006.50506364496</v>
       </c>
       <c r="Q95">
         <f t="shared" si="6"/>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="P96">
         <f t="shared" si="5"/>
-        <v>375615.27102020173</v>
+        <v>37561.527102020176</v>
       </c>
       <c r="Q96">
         <f t="shared" si="6"/>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="P97">
         <f t="shared" si="5"/>
-        <v>2899278.2601500773</v>
+        <v>289927.82601500774</v>
       </c>
       <c r="Q97">
         <f t="shared" si="6"/>
@@ -7528,7 +7528,7 @@
       </c>
       <c r="P98">
         <f t="shared" si="5"/>
-        <v>135922.08984610162</v>
+        <v>13592.208984610163</v>
       </c>
       <c r="Q98">
         <f t="shared" si="6"/>
@@ -7600,7 +7600,7 @@
       </c>
       <c r="P99">
         <f t="shared" si="5"/>
-        <v>1134689.9542899793</v>
+        <v>113468.99542899794</v>
       </c>
       <c r="Q99">
         <f t="shared" si="6"/>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="P100">
         <f t="shared" si="5"/>
-        <v>49130.750101739424</v>
+        <v>4913.0750101739422</v>
       </c>
       <c r="Q100">
         <f t="shared" si="6"/>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="P101">
         <f t="shared" si="5"/>
-        <v>440463.4984144179</v>
+        <v>44046.349841441792</v>
       </c>
       <c r="Q101">
         <f t="shared" si="6"/>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="P102">
         <f t="shared" si="5"/>
-        <v>17535.715911175917</v>
+        <v>1753.5715911175919</v>
       </c>
       <c r="Q102">
         <f t="shared" si="6"/>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="P103">
         <f t="shared" si="5"/>
-        <v>167896.62074010959</v>
+        <v>16789.662074010957</v>
       </c>
       <c r="Q103">
         <f t="shared" si="6"/>
@@ -7960,7 +7960,7 @@
       </c>
       <c r="P104">
         <f t="shared" si="5"/>
-        <v>6152.819978685553</v>
+        <v>615.28199786855532</v>
       </c>
       <c r="Q104">
         <f t="shared" si="6"/>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="P105">
         <f t="shared" si="5"/>
-        <v>62451.753415650812</v>
+        <v>6245.1753415650819</v>
       </c>
       <c r="Q105">
         <f t="shared" si="6"/>
@@ -8104,7 +8104,7 @@
       </c>
       <c r="P106">
         <f t="shared" si="5"/>
-        <v>2105.6728529039374</v>
+        <v>210.56728529039376</v>
       </c>
       <c r="Q106">
         <f t="shared" si="6"/>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="P107">
         <f t="shared" si="5"/>
-        <v>22605.774381069143</v>
+        <v>2260.5774381069145</v>
       </c>
       <c r="Q107">
         <f t="shared" si="6"/>
@@ -8248,7 +8248,7 @@
       </c>
       <c r="P108">
         <f t="shared" si="5"/>
-        <v>692.31893232388302</v>
+        <v>69.231893232388302</v>
       </c>
       <c r="Q108">
         <f t="shared" si="6"/>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="P109">
         <f t="shared" si="5"/>
-        <v>7834.0832299674503</v>
+        <v>783.40832299674503</v>
       </c>
       <c r="Q109">
         <f t="shared" si="6"/>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="P110">
         <f t="shared" si="5"/>
-        <v>218.44878468886523</v>
+        <v>21.844878468886524</v>
       </c>
       <c r="Q110">
         <f t="shared" si="6"/>
@@ -8464,7 +8464,7 @@
       </c>
       <c r="P111">
         <f t="shared" si="5"/>
-        <v>2597.5813956058332</v>
+        <v>259.75813956058334</v>
       </c>
       <c r="Q111">
         <f t="shared" si="6"/>
